--- a/data/input/absenteeism_data_46.xlsx
+++ b/data/input/absenteeism_data_46.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>41943</v>
+        <v>48586</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Yuri Cavalcanti</t>
+          <t>Dr. Diego Lima</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45090</v>
       </c>
       <c r="G2" t="n">
-        <v>3615.67</v>
+        <v>2554.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10224</v>
+        <v>57246</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laura Teixeira</t>
+          <t>Maria Cecília Duarte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="G3" t="n">
-        <v>2738.03</v>
+        <v>9740.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>88657</v>
+        <v>23366</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vicente Jesus</t>
+          <t>Gabriel Rodrigues</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,55 +548,55 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45101</v>
       </c>
       <c r="G4" t="n">
-        <v>11212.27</v>
+        <v>10357.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>78671</v>
+        <v>82900</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diego Moreira</t>
+          <t>Ana Fogaça</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45106</v>
+        <v>45098</v>
       </c>
       <c r="G5" t="n">
-        <v>6762.71</v>
+        <v>7591.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>94072</v>
+        <v>72001</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Luiza Monteiro</t>
+          <t>Cauê Caldeira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,89 +606,89 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45101</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>3455.53</v>
+        <v>4240.93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>877</v>
+        <v>58308</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pietra Monteiro</t>
+          <t>Elisa Almeida</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45080</v>
+        <v>45086</v>
       </c>
       <c r="G7" t="n">
-        <v>7473.84</v>
+        <v>7756.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17350</v>
+        <v>45555</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Milena Silveira</t>
+          <t>Luiz Miguel Melo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45099</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>9037.629999999999</v>
+        <v>11304.68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80753</v>
+        <v>46750</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bianca Correia</t>
+          <t>Arthur Dias</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -700,24 +700,24 @@
         <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45094</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>4931.86</v>
+        <v>9696.91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91190</v>
+        <v>30652</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Sophie Moraes</t>
+          <t>Renan Carvalho</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>6826.45</v>
+        <v>3202.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4202</v>
+        <v>71373</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr. Luiz Otávio Teixeira</t>
+          <t>Mariana Barros</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45088</v>
       </c>
       <c r="G11" t="n">
-        <v>2609.09</v>
+        <v>11796.43</v>
       </c>
     </row>
   </sheetData>
